--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1817784.127400858</v>
+        <v>1812496.011906084</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9035870.669631148</v>
+        <v>9034100.731459891</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>104.9265708502481</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>370.1982777182551</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.73738720775549</v>
       </c>
       <c r="T3" t="n">
-        <v>147.295474296812</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.58120307378774</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>57.82915963732489</v>
       </c>
       <c r="E5" t="n">
-        <v>323.7341090453368</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>56.86896541823882</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072235</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>153.887192363877</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>30.36829702595319</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>156.5413852699904</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>226.5839916731594</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1348,7 +1348,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>253.8243076884219</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>215.0477552563428</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>156.882933899636</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.560852477312387</v>
+        <v>76.39890556636927</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>30.23906312277358</v>
+        <v>250.8022170843284</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>23.74622724940218</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>125.0251913534907</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665152</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730221</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
@@ -2324,7 +2324,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404374</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838901</v>
+        <v>24.17382596574974</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828913</v>
+        <v>52.06849973564987</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431746</v>
+        <v>70.57601873167819</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459986</v>
+        <v>55.7231469819606</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643959</v>
+        <v>41.29686219380032</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193187</v>
+        <v>41.22330424667943</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908597</v>
+        <v>42.9727556664467</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614781</v>
+        <v>53.79159358883884</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805015</v>
+        <v>41.14384575541088</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922208</v>
+        <v>18.98356133658281</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.325522173678</v>
+        <v>9.882059701038727</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920531</v>
+        <v>88.00800320656604</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422876346</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1339.804601232476</v>
+        <v>1276.156231571197</v>
       </c>
       <c r="C2" t="n">
-        <v>946.6290997354063</v>
+        <v>1276.156231571197</v>
       </c>
       <c r="D2" t="n">
-        <v>561.187970952074</v>
+        <v>890.7151027878649</v>
       </c>
       <c r="E2" t="n">
-        <v>158.6044460686185</v>
+        <v>890.7151027878649</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634777</v>
+        <v>877.8610683582467</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>588.487006042434</v>
       </c>
       <c r="M2" t="n">
-        <v>1549.897808704473</v>
+        <v>588.487006042434</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704473</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596801</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023272</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.790056023272</v>
+        <v>1276.156231571197</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.790056023272</v>
+        <v>1276.156231571197</v>
       </c>
       <c r="Y2" t="n">
-        <v>1740.299346943873</v>
+        <v>1276.156231571197</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>703.184559508882</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.902816011259</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="N3" t="n">
-        <v>1769.161601021352</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021352</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.78296973775</v>
+        <v>2063.30639114242</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1886.322579341329</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1676.259436019971</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1453.719434391038</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1223.602188524324</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1034.295110874336</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>854.9808939498433</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.4143340704125</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>686.4143340704125</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D4" t="n">
-        <v>530.7812209729271</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="E4" t="n">
-        <v>375.2224088321296</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="F4" t="n">
-        <v>375.2224088321296</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9683549315752</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865304</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>686.4143340704125</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>686.4143340704125</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>686.4143340704125</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>686.4143340704125</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.4143340704125</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.9173246301434</v>
+        <v>1068.310850208847</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9173246301434</v>
+        <v>1068.310850208847</v>
       </c>
       <c r="D5" t="n">
-        <v>392.4761958468112</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596594</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634777</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>84.37185042796517</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>443.354206455427</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>936.6744981739558</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123377</v>
+        <v>936.6744981739558</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760839</v>
+        <v>1450.277176783644</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653167</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523739</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958337</v>
+        <v>1781.416694537041</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661856</v>
+        <v>1439.30988524056</v>
       </c>
       <c r="W5" t="n">
-        <v>777.9173246301434</v>
+        <v>1068.310850208847</v>
       </c>
       <c r="X5" t="n">
-        <v>777.9173246301434</v>
+        <v>1068.310850208847</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.9173246301434</v>
+        <v>1068.310850208847</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021447</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622369</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837172</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946049</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1803297822425</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569815</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M6" t="n">
-        <v>901.4935904670745</v>
+        <v>874.8450714282526</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675987</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.609752343106</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475499</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475499</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>522.561786482426</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>522.561786482426</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>462.7840003030732</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>462.7840003030732</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>462.7840003030732</v>
+        <v>912.2752217969281</v>
       </c>
       <c r="X7" t="n">
-        <v>228.7036780860563</v>
+        <v>678.1948995799112</v>
       </c>
       <c r="Y7" t="n">
-        <v>228.7036780860563</v>
+        <v>678.1948995799112</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.829892374927</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="C8" t="n">
-        <v>1173.829892374927</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.707280991098</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.28249744187</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.28249744187</v>
+        <v>2136.775786215403</v>
       </c>
       <c r="X8" t="n">
-        <v>1173.829892374927</v>
+        <v>2136.775786215403</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.829892374927</v>
+        <v>1740.285077136004</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
-        <v>952.5501211703722</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>589.1399514439072</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>303.7011596858081</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1615.418592984052</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179666</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654569</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838007</v>
+        <v>2341.517459342259</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917257</v>
+        <v>2341.517459342259</v>
       </c>
       <c r="Y11" t="n">
-        <v>1615.418592984052</v>
+        <v>2016.823025409054</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.2443528819558</v>
+        <v>306.7345522742328</v>
       </c>
       <c r="C13" t="n">
-        <v>464.835510094139</v>
+        <v>306.7345522742328</v>
       </c>
       <c r="D13" t="n">
-        <v>380.9986721428478</v>
+        <v>306.7345522742328</v>
       </c>
       <c r="E13" t="n">
-        <v>297.2361351482442</v>
+        <v>222.9720152796292</v>
       </c>
       <c r="F13" t="n">
-        <v>211.706475507411</v>
+        <v>222.9720152796292</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
@@ -5206,16 +5206,16 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138157</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
@@ -5224,25 +5224,25 @@
         <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457678</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1201.790056457678</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>1201.790056457678</v>
+        <v>793.9644698127918</v>
       </c>
       <c r="W13" t="n">
-        <v>990.2559295350493</v>
+        <v>582.4303428901633</v>
       </c>
       <c r="X13" t="n">
-        <v>827.9718824642262</v>
+        <v>420.1462958193403</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.6560964270633</v>
+        <v>420.1462958193403</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1742.388000021626</v>
+        <v>1712.892289341941</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5315,13 +5315,13 @@
         <v>2683.941523761099</v>
       </c>
       <c r="W14" t="n">
-        <v>2384.73876387558</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="X14" t="n">
-        <v>2067.082433954831</v>
+        <v>2366.28519384035</v>
       </c>
       <c r="Y14" t="n">
-        <v>1742.388000021626</v>
+        <v>2041.590759907145</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>473.0040912619325</v>
+        <v>314.8481789384689</v>
       </c>
       <c r="C16" t="n">
-        <v>473.0040912619325</v>
+        <v>314.8481789384689</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106412</v>
+        <v>314.8481789384689</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160376</v>
+        <v>231.0856419438653</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752044</v>
+        <v>231.0856419438653</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027739</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1154.417078833473</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="V16" t="n">
-        <v>960.2340088004914</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W16" t="n">
-        <v>748.6998818778629</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="X16" t="n">
-        <v>586.4158348070399</v>
+        <v>579.5757085207392</v>
       </c>
       <c r="Y16" t="n">
-        <v>586.4158348070399</v>
+        <v>428.2599224835764</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099314</v>
@@ -5507,25 +5507,25 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5540,25 +5540,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634304</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879418</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5926,34 +5926,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6075,16 +6075,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567326</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879418</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296498</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,37 +6218,37 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838401</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.28679488479</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658944</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
         <v>245.369845387968</v>
@@ -6376,22 +6376,22 @@
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718128</v>
@@ -6452,7 +6452,7 @@
         <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.903663714218</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,16 +6461,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
         <v>2360.20170202598</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6549,16 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057095</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835491</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039955997</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>763.8629527501316</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1362.456337195731</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.457237240311</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877773</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770102</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901624</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965136</v>
+        <v>365.6713676929709</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918673</v>
+        <v>309.3853606404855</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237465</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.73045008374184</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>391.0095793541359</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>682.57425041947</v>
+        <v>687.487431504142</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770973</v>
+        <v>870.6770655353512</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1033.381832577059</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250173</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439553</v>
+        <v>835.7257283273668</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000951</v>
+        <v>666.3144371400697</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124426</v>
+        <v>546.1532258045781</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584504</v>
+        <v>436.9602755027469</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924224</v>
@@ -6935,19 +6935,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,7 +6956,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
         <v>3105.956385205777</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,10 +7093,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L37" t="n">
         <v>442.7178209184696</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7324,31 +7324,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,25 +7433,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7582,13 +7582,13 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924315</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7804,19 +7804,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
         <v>974.9038003296507</v>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>197.037695336356</v>
       </c>
       <c r="M2" t="n">
-        <v>664.3207371077262</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>480.3688641260439</v>
+        <v>465.3882399439956</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>160.9814578126762</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405034</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837493</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>203.3343718525567</v>
+        <v>369.3046573618259</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>281.3299123769229</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>674.5394322581657</v>
       </c>
       <c r="N9" t="n">
-        <v>344.5555886567312</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9252,7 +9252,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384012</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>103.117678831024</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>139.3277983870274</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>90.93234848950463</v>
+        <v>19.09429540044772</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>287.9263709645932</v>
+        <v>67.36321700303841</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>71.74697371741483</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>86.48090009229546</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-9.00399754755199e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.658773624822938e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>790004.2526868825</v>
+        <v>789101.9312662421</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790004.2526868825</v>
+        <v>789101.9312662421</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708020.7773589522</v>
+        <v>708020.7773589523</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796108.0269685686</v>
+        <v>796108.0269685684</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796108.0269685686</v>
+        <v>796108.0269685684</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>504930.098661399</v>
       </c>
       <c r="C2" t="n">
-        <v>504930.0986613992</v>
+        <v>504930.0986613991</v>
       </c>
       <c r="D2" t="n">
         <v>504930.098661399</v>
       </c>
       <c r="E2" t="n">
-        <v>446205.2655883212</v>
+        <v>446205.2655883211</v>
       </c>
       <c r="F2" t="n">
-        <v>446205.2655883211</v>
+        <v>446205.2655883213</v>
       </c>
       <c r="G2" t="n">
-        <v>504930.0986613994</v>
+        <v>504930.0986613989</v>
       </c>
       <c r="H2" t="n">
-        <v>504930.0986613993</v>
+        <v>504930.0986613985</v>
       </c>
       <c r="I2" t="n">
-        <v>504930.0986613994</v>
+        <v>504930.0986613988</v>
       </c>
       <c r="J2" t="n">
-        <v>504930.0986613992</v>
+        <v>504930.0986613989</v>
       </c>
       <c r="K2" t="n">
-        <v>504930.0986613993</v>
+        <v>504930.098661399</v>
       </c>
       <c r="L2" t="n">
-        <v>504930.0986613994</v>
+        <v>504930.0986613991</v>
       </c>
       <c r="M2" t="n">
+        <v>504930.0986613984</v>
+      </c>
+      <c r="N2" t="n">
         <v>504930.0986613983</v>
       </c>
-      <c r="N2" t="n">
-        <v>504930.0986613986</v>
-      </c>
       <c r="O2" t="n">
+        <v>504930.0986613982</v>
+      </c>
+      <c r="P2" t="n">
         <v>504930.0986613984</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504930.0986613985</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47425.32553668199</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>47425.32553668201</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728549</v>
+        <v>62456.24177539686</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
+        <v>112797.3745002078</v>
+      </c>
+      <c r="F4" t="n">
         <v>112797.3745002077</v>
-      </c>
-      <c r="F4" t="n">
-        <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26494,19 +26494,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56225.64131043444</v>
+        <v>60276.3133178492</v>
       </c>
       <c r="C6" t="n">
-        <v>238430.5896022906</v>
+        <v>234134.9703519042</v>
       </c>
       <c r="D6" t="n">
-        <v>231838.5282625681</v>
+        <v>224102.2390391763</v>
       </c>
       <c r="E6" t="n">
-        <v>168099.3099142284</v>
+        <v>167889.5783675388</v>
       </c>
       <c r="F6" t="n">
-        <v>280221.8713882728</v>
+        <v>280012.1398415834</v>
       </c>
       <c r="G6" t="n">
-        <v>238778.7128174077</v>
+        <v>238778.7128174073</v>
       </c>
       <c r="H6" t="n">
-        <v>286204.0383540896</v>
+        <v>286204.0383540888</v>
       </c>
       <c r="I6" t="n">
-        <v>286204.0383540897</v>
+        <v>286204.0383540891</v>
       </c>
       <c r="J6" t="n">
-        <v>73162.12075680407</v>
+        <v>79678.40591137705</v>
       </c>
       <c r="K6" t="n">
-        <v>279964.2699513067</v>
+        <v>279964.2699513063</v>
       </c>
       <c r="L6" t="n">
-        <v>224781.6810166857</v>
+        <v>220732.843806213</v>
       </c>
       <c r="M6" t="n">
-        <v>244003.2088944655</v>
+        <v>242951.5138832775</v>
       </c>
       <c r="N6" t="n">
-        <v>286204.038354089</v>
+        <v>286204.0383540886</v>
       </c>
       <c r="O6" t="n">
-        <v>258436.3443113176</v>
+        <v>258436.3443113173</v>
       </c>
       <c r="P6" t="n">
-        <v>286204.0383540888</v>
+        <v>286204.0383540887</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>71.07831239473192</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.0783123947319</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293133</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.28165692085248</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>59.28165692085251</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660686</v>
+        <v>78.07030221924607</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551357</v>
+        <v>17.58004954287431</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59.28165692085248</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>59.28165692085251</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>307.798923235074</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>38.83285023862175</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>121.8439831213744</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626865</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>260.0032007667303</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27619,22 +27619,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>323.757557858174</v>
       </c>
       <c r="E5" t="n">
-        <v>74.82358058928412</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>66.31852263746069</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758571</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>128.6972114766411</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>250.128801022181</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>225.0453322255085</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>140.705053008236</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>9.495244038962142</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="M19" t="n">
-        <v>5.63600263452804</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634527857</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29223,25 +29223,25 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M25" t="n">
-        <v>5.636002634528154</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901135</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>93.99127447431648</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>30.27223765901215</v>
       </c>
-      <c r="M29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="N29" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>81.10808140893084</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224705</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254353</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668824</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634528921</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30654,7 +30654,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,22 +30876,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586429</v>
       </c>
       <c r="M2" t="n">
-        <v>514.5956855099989</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>387.981742076732</v>
+        <v>373.0011178946837</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>43.30161987033006</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995782</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>117.96225899839</v>
+        <v>283.9325445076593</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>128.0817426464313</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>582.1523102088538</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>259.1834758025645</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36045,13 +36045,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M19" t="n">
-        <v>193.80931408732</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.09276664468034</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873201</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272223</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495123</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917556</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>267.82076841999</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273753</v>
+        <v>75.16693519537679</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791174</v>
+        <v>82.705432300551</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>295.0416534752624</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029875023</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529174</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565491</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716078</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
